--- a/config_3.2/prop_clear_server.xlsx
+++ b/config_3.2/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
   <si>
     <t>id|行号</t>
   </si>
@@ -477,6 +477,34 @@
   </si>
   <si>
     <t>prop_fish_drop_act_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_ty_csbox</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_ty_ssbox</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_ty_xybox</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小汤圆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包专用--传说</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包专用--史诗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包专用--稀有</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -549,7 +577,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,13 +598,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,7 +644,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -668,22 +690,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -962,11 +975,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1073,16 +1086,16 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="16">
-        <v>1612828800</v>
+        <v>1614643200</v>
       </c>
       <c r="D6" s="16">
-        <v>1613404799</v>
-      </c>
-      <c r="E6" s="15" t="s">
+        <v>1615219199</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1719,16 +1732,16 @@
       <c r="A44" s="8">
         <v>43</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="11">
         <v>1612828800</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="11">
         <v>1613404799</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="10" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1736,16 +1749,16 @@
       <c r="A45" s="8">
         <v>44</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="11">
         <v>1612828800</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="11">
         <v>1613404799</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="10" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1753,16 +1766,16 @@
       <c r="A46" s="8">
         <v>45</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="11">
         <v>1612828800</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="11">
         <v>1613404799</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="10" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1770,16 +1783,16 @@
       <c r="A47" s="8">
         <v>46</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="11">
         <v>1612828800</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="11">
         <v>1613404799</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="10" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1787,16 +1800,16 @@
       <c r="A48" s="8">
         <v>47</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="11">
         <v>1612828800</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D48" s="11">
         <v>1613404799</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="10" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1804,16 +1817,16 @@
       <c r="A49" s="8">
         <v>48</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="11">
         <v>1612828800</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D49" s="11">
         <v>1613404799</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="E49" s="10" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1821,16 +1834,16 @@
       <c r="A50" s="8">
         <v>49</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="11">
         <v>1612828800</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D50" s="11">
         <v>1613404799</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="10" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1838,16 +1851,16 @@
       <c r="A51" s="8">
         <v>50</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="11">
         <v>1612828800</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D51" s="11">
         <v>1613404799</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="11" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1855,17 +1868,68 @@
       <c r="A52" s="8">
         <v>51</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="11">
         <v>1614038400</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="11">
         <v>1614614399</v>
       </c>
-      <c r="E52" s="20" t="s">
-        <v>103</v>
+      <c r="E52" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="8">
+        <v>52</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="16">
+        <v>1614643200</v>
+      </c>
+      <c r="D53" s="16">
+        <v>1615219199</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="8">
+        <v>53</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="16">
+        <v>1614643200</v>
+      </c>
+      <c r="D54" s="16">
+        <v>1615219199</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="8">
+        <v>54</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="16">
+        <v>1614643200</v>
+      </c>
+      <c r="D55" s="16">
+        <v>1615219199</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
